--- a/dados_servidores_teste.xlsx
+++ b/dados_servidores_teste.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$Z$77</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$Z$85</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="293">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -136,262 +136,289 @@
     <t xml:space="preserve">Production</t>
   </si>
   <si>
+    <t xml:space="preserve">APLICACOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 2016 Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmware, Inc. Vmware Virtual Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceNow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homologation</t>
+  </si>
+  <si>
     <t xml:space="preserve">BACKUP</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows 2016 Standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vmware, Inc. Vmware Virtual Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServiceNow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.61</t>
+    <t xml:space="preserve">10.0.14398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEBSERVERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONECTA WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0287</t>
   </si>
   <si>
     <t xml:space="preserve">WEBSERVER</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0.14394</t>
+    <t xml:space="preserve">MA0288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTAL MASSAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEB THINKERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTAL WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTAL GERACAO NEGOCIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTAL QI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14408</t>
   </si>
   <si>
     <t xml:space="preserve">Micro Focus Asset Manager</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homologation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.63</t>
+    <t xml:space="preserve">MA0306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.83</t>
   </si>
   <si>
     <t xml:space="preserve">Pre-Production</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0.14396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0290</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.83</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.0.14416</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0302</t>
+    <t xml:space="preserve">MA0314</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.84</t>
@@ -400,7 +427,7 @@
     <t xml:space="preserve">10.0.14417</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0303</t>
+    <t xml:space="preserve">MA0315</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.85</t>
@@ -409,7 +436,7 @@
     <t xml:space="preserve">10.0.14418</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0304</t>
+    <t xml:space="preserve">MA0316</t>
   </si>
   <si>
     <t xml:space="preserve">MT5</t>
@@ -421,7 +448,7 @@
     <t xml:space="preserve">10.0.14419</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0305</t>
+    <t xml:space="preserve">MA0317</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.87</t>
@@ -430,7 +457,7 @@
     <t xml:space="preserve">10.0.14420</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0306</t>
+    <t xml:space="preserve">MA0318</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.88</t>
@@ -439,7 +466,7 @@
     <t xml:space="preserve">10.0.14421</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0307</t>
+    <t xml:space="preserve">MA0319</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.89</t>
@@ -448,7 +475,7 @@
     <t xml:space="preserve">10.0.14422</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0308</t>
+    <t xml:space="preserve">MA0320</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.90</t>
@@ -457,7 +484,7 @@
     <t xml:space="preserve">10.0.14423</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0309</t>
+    <t xml:space="preserve">MA0321</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.91</t>
@@ -466,7 +493,7 @@
     <t xml:space="preserve">10.0.14424</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0310</t>
+    <t xml:space="preserve">MA0322</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.92</t>
@@ -475,7 +502,7 @@
     <t xml:space="preserve">10.0.14425</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0311</t>
+    <t xml:space="preserve">MA0323</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.93</t>
@@ -484,7 +511,7 @@
     <t xml:space="preserve">10.0.14426</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0312</t>
+    <t xml:space="preserve">MA0324</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.94</t>
@@ -493,7 +520,7 @@
     <t xml:space="preserve">10.0.14427</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0313</t>
+    <t xml:space="preserve">MA0325</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.95</t>
@@ -505,7 +532,7 @@
     <t xml:space="preserve">10.0.14428</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0314</t>
+    <t xml:space="preserve">MA0326</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.96</t>
@@ -514,7 +541,7 @@
     <t xml:space="preserve">10.0.14429</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0315</t>
+    <t xml:space="preserve">MA0327</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.97</t>
@@ -523,7 +550,7 @@
     <t xml:space="preserve">10.0.14430</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0316</t>
+    <t xml:space="preserve">MA0328</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.98</t>
@@ -532,7 +559,7 @@
     <t xml:space="preserve">10.0.14431</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0317</t>
+    <t xml:space="preserve">MA0329</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.99</t>
@@ -541,7 +568,7 @@
     <t xml:space="preserve">10.0.14432</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0318</t>
+    <t xml:space="preserve">MA0330</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.100</t>
@@ -550,7 +577,7 @@
     <t xml:space="preserve">10.0.14433</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0319</t>
+    <t xml:space="preserve">MA0331</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.101</t>
@@ -559,7 +586,7 @@
     <t xml:space="preserve">10.0.14434</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0320</t>
+    <t xml:space="preserve">MA0332</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.102</t>
@@ -568,7 +595,7 @@
     <t xml:space="preserve">10.0.14435</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0321</t>
+    <t xml:space="preserve">MA0333</t>
   </si>
   <si>
     <t xml:space="preserve">MT7</t>
@@ -580,7 +607,7 @@
     <t xml:space="preserve">10.0.14436</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0322</t>
+    <t xml:space="preserve">MA0334</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.104</t>
@@ -589,7 +616,7 @@
     <t xml:space="preserve">10.0.14437</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0323</t>
+    <t xml:space="preserve">MA0335</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.105</t>
@@ -598,7 +625,7 @@
     <t xml:space="preserve">10.0.14438</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0324</t>
+    <t xml:space="preserve">MA0336</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.106</t>
@@ -607,7 +634,7 @@
     <t xml:space="preserve">10.0.14439</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0325</t>
+    <t xml:space="preserve">MA0337</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.107</t>
@@ -616,7 +643,7 @@
     <t xml:space="preserve">10.0.14440</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0326</t>
+    <t xml:space="preserve">MA0338</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.108</t>
@@ -625,7 +652,7 @@
     <t xml:space="preserve">10.0.14441</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0327</t>
+    <t xml:space="preserve">MA0339</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.109</t>
@@ -634,7 +661,7 @@
     <t xml:space="preserve">10.0.14442</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0328</t>
+    <t xml:space="preserve">MA0340</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.110</t>
@@ -646,7 +673,7 @@
     <t xml:space="preserve">10.0.14443</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0329</t>
+    <t xml:space="preserve">MA0341</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.111</t>
@@ -655,7 +682,7 @@
     <t xml:space="preserve">10.0.14444</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0330</t>
+    <t xml:space="preserve">MA0342</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.112</t>
@@ -664,7 +691,7 @@
     <t xml:space="preserve">10.0.14445</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0331</t>
+    <t xml:space="preserve">MA0343</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.113</t>
@@ -673,7 +700,7 @@
     <t xml:space="preserve">10.0.14446</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0332</t>
+    <t xml:space="preserve">MA0344</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.114</t>
@@ -682,7 +709,7 @@
     <t xml:space="preserve">10.0.14447</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0333</t>
+    <t xml:space="preserve">MA0345</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.115</t>
@@ -691,7 +718,7 @@
     <t xml:space="preserve">10.0.14448</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0334</t>
+    <t xml:space="preserve">MA0346</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.116</t>
@@ -703,7 +730,7 @@
     <t xml:space="preserve">10.0.14449</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0335</t>
+    <t xml:space="preserve">MA0347</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.117</t>
@@ -712,7 +739,7 @@
     <t xml:space="preserve">10.0.14450</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0336</t>
+    <t xml:space="preserve">MA0348</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.118</t>
@@ -721,7 +748,7 @@
     <t xml:space="preserve">10.0.14451</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0337</t>
+    <t xml:space="preserve">MA0349</t>
   </si>
   <si>
     <t xml:space="preserve">MS9</t>
@@ -733,7 +760,7 @@
     <t xml:space="preserve">10.0.14452</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0338</t>
+    <t xml:space="preserve">MA0350</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.120</t>
@@ -742,7 +769,7 @@
     <t xml:space="preserve">10.0.14453</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0339</t>
+    <t xml:space="preserve">MA0351</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.121</t>
@@ -751,7 +778,7 @@
     <t xml:space="preserve">10.0.14454</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0340</t>
+    <t xml:space="preserve">MA0352</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.122</t>
@@ -760,7 +787,7 @@
     <t xml:space="preserve">10.0.14455</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0341</t>
+    <t xml:space="preserve">MA0353</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.123</t>
@@ -769,7 +796,7 @@
     <t xml:space="preserve">10.0.14456</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0342</t>
+    <t xml:space="preserve">MA0354</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.124</t>
@@ -778,7 +805,7 @@
     <t xml:space="preserve">10.0.14457</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0343</t>
+    <t xml:space="preserve">MA0355</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.125</t>
@@ -787,7 +814,7 @@
     <t xml:space="preserve">10.0.14458</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0344</t>
+    <t xml:space="preserve">MA0356</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.126</t>
@@ -796,7 +823,7 @@
     <t xml:space="preserve">10.0.14459</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0345</t>
+    <t xml:space="preserve">MA0357</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.127</t>
@@ -805,7 +832,7 @@
     <t xml:space="preserve">10.0.14460</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0346</t>
+    <t xml:space="preserve">MA0358</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.128</t>
@@ -814,7 +841,7 @@
     <t xml:space="preserve">10.0.14461</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0347</t>
+    <t xml:space="preserve">MA0359</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.129</t>
@@ -823,7 +850,7 @@
     <t xml:space="preserve">10.0.14462</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0348</t>
+    <t xml:space="preserve">MA0360</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.130</t>
@@ -832,7 +859,7 @@
     <t xml:space="preserve">10.0.14463</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0349</t>
+    <t xml:space="preserve">MA0361</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.131</t>
@@ -841,7 +868,7 @@
     <t xml:space="preserve">10.0.14464</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0350</t>
+    <t xml:space="preserve">MA0362</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.132</t>
@@ -850,7 +877,7 @@
     <t xml:space="preserve">10.0.14465</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0351</t>
+    <t xml:space="preserve">MA0363</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.133</t>
@@ -859,7 +886,7 @@
     <t xml:space="preserve">10.0.14466</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0352</t>
+    <t xml:space="preserve">MA0364</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.134</t>
@@ -868,7 +895,7 @@
     <t xml:space="preserve">10.0.14467</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0353</t>
+    <t xml:space="preserve">MA0365</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.135</t>
@@ -1159,13 +1186,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ77"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.06"/>
@@ -1184,7 +1211,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="6.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.63"/>
@@ -1321,7 +1348,7 @@
       <c r="N2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="11" t="s">
         <v>37</v>
       </c>
       <c r="P2" s="9" t="s">
@@ -1374,13 +1401,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>30</v>
@@ -1400,20 +1427,20 @@
       <c r="L3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>36</v>
+      <c r="M3" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>40</v>
@@ -1422,25 +1449,25 @@
         <v>41</v>
       </c>
       <c r="T3" s="12" t="n">
-        <v>24576</v>
+        <v>7822</v>
       </c>
       <c r="U3" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V3" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X3" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y3" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AMF3" s="0"/>
       <c r="AMG3" s="0"/>
@@ -1448,24 +1475,24 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E4" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>30</v>
@@ -1486,19 +1513,19 @@
         <v>35</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>40</v>
@@ -1510,16 +1537,16 @@
         <v>7822</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" s="12" t="n">
-        <v>320</v>
+        <v>230</v>
       </c>
       <c r="Y4" s="12" t="s">
         <v>42</v>
@@ -1533,24 +1560,24 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>30</v>
@@ -1570,20 +1597,20 @@
       <c r="L5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>37</v>
+      <c r="M5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>40</v>
@@ -1592,19 +1619,19 @@
         <v>41</v>
       </c>
       <c r="T5" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U5" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V5" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W5" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5" s="12" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="Y5" s="12" t="s">
         <v>42</v>
@@ -1618,24 +1645,24 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>30</v>
@@ -1656,19 +1683,19 @@
         <v>35</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>40</v>
@@ -1677,16 +1704,16 @@
         <v>41</v>
       </c>
       <c r="T6" s="12" t="n">
-        <v>7822</v>
+        <v>8192</v>
       </c>
       <c r="U6" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" s="12" t="n">
         <v>8</v>
       </c>
       <c r="W6" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X6" s="12" t="n">
         <v>230</v>
@@ -1705,22 +1732,22 @@
     </row>
     <row r="7" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E7" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>30</v>
@@ -1741,19 +1768,19 @@
         <v>35</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>40</v>
@@ -1771,7 +1798,7 @@
         <v>16</v>
       </c>
       <c r="W7" s="12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="12" t="n">
         <v>230</v>
@@ -1788,24 +1815,24 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E8" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>30</v>
@@ -1826,19 +1853,19 @@
         <v>35</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="R8" s="12" t="s">
         <v>40</v>
@@ -1875,22 +1902,22 @@
     </row>
     <row r="9" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>30</v>
@@ -1911,19 +1938,19 @@
         <v>35</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>40</v>
@@ -1944,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="X9" s="12" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="Y9" s="12" t="s">
         <v>42</v>
@@ -1958,24 +1985,24 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>30</v>
@@ -1996,19 +2023,19 @@
         <v>35</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>40</v>
@@ -2017,19 +2044,19 @@
         <v>41</v>
       </c>
       <c r="T10" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U10" s="12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V10" s="12" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="W10" s="12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X10" s="12" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="Y10" s="12" t="s">
         <v>42</v>
@@ -2043,24 +2070,24 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E11" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>30</v>
@@ -2081,19 +2108,19 @@
         <v>35</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>40</v>
@@ -2102,16 +2129,16 @@
         <v>41</v>
       </c>
       <c r="T11" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U11" s="12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V11" s="12" t="n">
         <v>4</v>
       </c>
       <c r="W11" s="12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X11" s="12" t="n">
         <v>230</v>
@@ -2130,22 +2157,22 @@
     </row>
     <row r="12" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E12" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>30</v>
@@ -2166,19 +2193,19 @@
         <v>35</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>40</v>
@@ -2190,16 +2217,16 @@
         <v>16384</v>
       </c>
       <c r="U12" s="12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V12" s="12" t="n">
         <v>8</v>
       </c>
       <c r="W12" s="12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X12" s="12" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="Y12" s="12" t="s">
         <v>42</v>
@@ -2215,22 +2242,22 @@
     </row>
     <row r="13" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E13" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>30</v>
@@ -2251,19 +2278,19 @@
         <v>35</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>40</v>
@@ -2272,16 +2299,16 @@
         <v>41</v>
       </c>
       <c r="T13" s="12" t="n">
-        <v>7822</v>
+        <v>8192</v>
       </c>
       <c r="U13" s="12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" s="12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="W13" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X13" s="12" t="n">
         <v>230</v>
@@ -2298,24 +2325,24 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="12" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E14" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>30</v>
@@ -2336,19 +2363,19 @@
         <v>35</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>40</v>
@@ -2357,16 +2384,16 @@
         <v>41</v>
       </c>
       <c r="T14" s="12" t="n">
-        <v>7822</v>
+        <v>24576</v>
       </c>
       <c r="U14" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V14" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W14" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X14" s="12" t="n">
         <v>230</v>
@@ -2383,24 +2410,24 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" s="12" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>30</v>
@@ -2421,19 +2448,19 @@
         <v>35</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>40</v>
@@ -2442,19 +2469,19 @@
         <v>41</v>
       </c>
       <c r="T15" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U15" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V15" s="12" t="n">
         <v>8</v>
       </c>
       <c r="W15" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X15" s="12" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="Y15" s="12" t="s">
         <v>42</v>
@@ -2468,30 +2495,30 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E16" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>92</v>
+      <c r="H16" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>32</v>
@@ -2506,19 +2533,19 @@
         <v>35</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="R16" s="12" t="s">
         <v>40</v>
@@ -2530,13 +2557,13 @@
         <v>16384</v>
       </c>
       <c r="U16" s="12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V16" s="12" t="n">
         <v>16</v>
       </c>
       <c r="W16" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" s="12" t="n">
         <v>230</v>
@@ -2547,31 +2574,36 @@
       <c r="Z16" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMF16" s="0"/>
+      <c r="AMG16" s="0"/>
+      <c r="AMH16" s="0"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E17" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>92</v>
+      <c r="H17" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>32</v>
@@ -2586,19 +2618,19 @@
         <v>35</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="R17" s="12" t="s">
         <v>40</v>
@@ -2610,48 +2642,53 @@
         <v>16384</v>
       </c>
       <c r="U17" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="V17" s="12" t="n">
-        <v>16</v>
-      </c>
       <c r="W17" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" s="12" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="Y17" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="AMF17" s="0"/>
+      <c r="AMG17" s="0"/>
+      <c r="AMH17" s="0"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" s="12" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>92</v>
+      <c r="H18" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>32</v>
@@ -2665,20 +2702,20 @@
       <c r="L18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>37</v>
+      <c r="M18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="R18" s="12" t="s">
         <v>40</v>
@@ -2687,51 +2724,56 @@
         <v>41</v>
       </c>
       <c r="T18" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U18" s="12" t="n">
         <v>8</v>
       </c>
       <c r="V18" s="12" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="W18" s="12" t="n">
         <v>4</v>
       </c>
       <c r="X18" s="12" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="AMF18" s="0"/>
+      <c r="AMG18" s="0"/>
+      <c r="AMH18" s="0"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E19" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>92</v>
+      <c r="H19" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>32</v>
@@ -2745,20 +2787,20 @@
       <c r="L19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>37</v>
+      <c r="M19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="R19" s="12" t="s">
         <v>40</v>
@@ -2773,7 +2815,7 @@
         <v>8</v>
       </c>
       <c r="V19" s="12" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="W19" s="12" t="n">
         <v>4</v>
@@ -2785,60 +2827,65 @@
         <v>42</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="AMF19" s="0"/>
+      <c r="AMG19" s="0"/>
+      <c r="AMH19" s="0"/>
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>37</v>
+      <c r="N20" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="R20" s="12" t="s">
         <v>40</v>
@@ -2847,78 +2894,83 @@
         <v>41</v>
       </c>
       <c r="T20" s="12" t="n">
-        <v>16384</v>
+        <v>24576</v>
       </c>
       <c r="U20" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V20" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W20" s="12" t="n">
         <v>4</v>
       </c>
       <c r="X20" s="12" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="Y20" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="AMF20" s="0"/>
+      <c r="AMG20" s="0"/>
+      <c r="AMH20" s="0"/>
+      <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="N21" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="R21" s="12" t="s">
         <v>40</v>
@@ -2927,16 +2979,16 @@
         <v>41</v>
       </c>
       <c r="T21" s="12" t="n">
-        <v>16384</v>
+        <v>7822</v>
       </c>
       <c r="U21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="V21" s="12" t="n">
-        <v>16</v>
-      </c>
       <c r="W21" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X21" s="12" t="n">
         <v>230</v>
@@ -2945,61 +2997,66 @@
         <v>42</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="AMF21" s="0"/>
+      <c r="AMG21" s="0"/>
+      <c r="AMH21" s="0"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="N22" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Q22" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="R22" s="12" t="s">
         <v>40</v>
       </c>
@@ -3007,16 +3064,16 @@
         <v>41</v>
       </c>
       <c r="T22" s="12" t="n">
-        <v>16384</v>
+        <v>7822</v>
       </c>
       <c r="U22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="V22" s="12" t="n">
-        <v>16</v>
-      </c>
       <c r="W22" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X22" s="12" t="n">
         <v>230</v>
@@ -3025,60 +3082,65 @@
         <v>42</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+      <c r="AMF22" s="0"/>
+      <c r="AMG22" s="0"/>
+      <c r="AMH22" s="0"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row r="23" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M23" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="N23" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="R23" s="12" t="s">
         <v>40</v>
@@ -3087,51 +3149,56 @@
         <v>41</v>
       </c>
       <c r="T23" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="V23" s="12" t="n">
-        <v>16</v>
-      </c>
       <c r="W23" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X23" s="12" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="Y23" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AMF23" s="0"/>
+      <c r="AMG23" s="0"/>
+      <c r="AMH23" s="0"/>
+      <c r="AMI23" s="0"/>
+      <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3146,19 +3213,19 @@
         <v>35</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="R24" s="12" t="s">
         <v>40</v>
@@ -3176,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="W24" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X24" s="12" t="n">
         <v>230</v>
@@ -3185,33 +3252,33 @@
         <v>42</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E25" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>32</v>
@@ -3225,20 +3292,20 @@
       <c r="L25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>55</v>
+      <c r="M25" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="R25" s="12" t="s">
         <v>40</v>
@@ -3247,7 +3314,7 @@
         <v>41</v>
       </c>
       <c r="T25" s="12" t="n">
-        <v>24576</v>
+        <v>16384</v>
       </c>
       <c r="U25" s="12" t="n">
         <v>8</v>
@@ -3256,42 +3323,42 @@
         <v>16</v>
       </c>
       <c r="W25" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X25" s="12" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="Y25" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E26" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>32</v>
@@ -3305,20 +3372,20 @@
       <c r="L26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>55</v>
+      <c r="M26" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="R26" s="12" t="s">
         <v>40</v>
@@ -3327,7 +3394,7 @@
         <v>41</v>
       </c>
       <c r="T26" s="12" t="n">
-        <v>24576</v>
+        <v>16384</v>
       </c>
       <c r="U26" s="12" t="n">
         <v>8</v>
@@ -3338,40 +3405,40 @@
       <c r="W26" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="X26" s="0" t="n">
-        <v>0</v>
+      <c r="X26" s="12" t="n">
+        <v>230</v>
       </c>
       <c r="Y26" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E27" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>32</v>
@@ -3385,20 +3452,20 @@
       <c r="L27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M27" s="9" t="s">
-        <v>78</v>
+      <c r="M27" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="R27" s="12" t="s">
         <v>40</v>
@@ -3418,40 +3485,40 @@
       <c r="W27" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="X27" s="0" t="n">
-        <v>0</v>
+      <c r="X27" s="12" t="n">
+        <v>230</v>
       </c>
       <c r="Y27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E28" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3465,20 +3532,20 @@
       <c r="L28" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="9" t="s">
-        <v>78</v>
+      <c r="M28" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="R28" s="12" t="s">
         <v>40</v>
@@ -3487,7 +3554,7 @@
         <v>41</v>
       </c>
       <c r="T28" s="12" t="n">
-        <v>32768</v>
+        <v>16384</v>
       </c>
       <c r="U28" s="12" t="n">
         <v>8</v>
@@ -3498,40 +3565,40 @@
       <c r="W28" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="X28" s="0" t="n">
-        <v>0</v>
+      <c r="X28" s="12" t="n">
+        <v>230</v>
       </c>
       <c r="Y28" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E29" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>32</v>
@@ -3545,20 +3612,20 @@
       <c r="L29" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>55</v>
+      <c r="M29" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="R29" s="12" t="s">
         <v>40</v>
@@ -3567,7 +3634,7 @@
         <v>41</v>
       </c>
       <c r="T29" s="12" t="n">
-        <v>32768</v>
+        <v>16384</v>
       </c>
       <c r="U29" s="12" t="n">
         <v>8</v>
@@ -3578,40 +3645,40 @@
       <c r="W29" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="X29" s="0" t="n">
-        <v>0</v>
+      <c r="X29" s="12" t="n">
+        <v>230</v>
       </c>
       <c r="Y29" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E30" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3625,20 +3692,20 @@
       <c r="L30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M30" s="11" t="s">
-        <v>36</v>
+      <c r="M30" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="R30" s="12" t="s">
         <v>40</v>
@@ -3647,7 +3714,7 @@
         <v>41</v>
       </c>
       <c r="T30" s="12" t="n">
-        <v>32768</v>
+        <v>16384</v>
       </c>
       <c r="U30" s="12" t="n">
         <v>8</v>
@@ -3659,39 +3726,39 @@
         <v>4</v>
       </c>
       <c r="X30" s="12" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E31" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>32</v>
@@ -3705,20 +3772,20 @@
       <c r="L31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M31" s="11" t="s">
-        <v>36</v>
+      <c r="M31" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="R31" s="12" t="s">
         <v>40</v>
@@ -3739,39 +3806,39 @@
         <v>4</v>
       </c>
       <c r="X31" s="12" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="Y31" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E32" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>32</v>
@@ -3785,20 +3852,20 @@
       <c r="L32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="11" t="s">
-        <v>36</v>
+      <c r="M32" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="R32" s="12" t="s">
         <v>40</v>
@@ -3807,78 +3874,78 @@
         <v>41</v>
       </c>
       <c r="T32" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U32" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V32" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W32" s="12" t="n">
         <v>4</v>
       </c>
       <c r="X32" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y32" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E33" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="N33" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="R33" s="12" t="s">
         <v>40</v>
@@ -3887,78 +3954,78 @@
         <v>41</v>
       </c>
       <c r="T33" s="12" t="n">
-        <v>8192</v>
+        <v>24576</v>
       </c>
       <c r="U33" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V33" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W33" s="12" t="n">
         <v>4</v>
       </c>
       <c r="X33" s="12" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="Y33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="N34" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="R34" s="12" t="s">
         <v>40</v>
@@ -3967,51 +4034,51 @@
         <v>41</v>
       </c>
       <c r="T34" s="12" t="n">
-        <v>8192</v>
+        <v>24576</v>
       </c>
       <c r="U34" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V34" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W34" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="X34" s="12" t="n">
-        <v>800</v>
+      <c r="X34" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Y34" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E35" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>31</v>
+      <c r="H35" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>32</v>
@@ -4026,19 +4093,19 @@
         <v>35</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="R35" s="12" t="s">
         <v>40</v>
@@ -4056,10 +4123,10 @@
         <v>16</v>
       </c>
       <c r="W35" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X35" s="12" t="n">
-        <v>800</v>
+        <v>4</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>42</v>
@@ -4070,28 +4137,28 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E36" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>31</v>
+      <c r="H36" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>32</v>
@@ -4105,20 +4172,20 @@
       <c r="L36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>55</v>
+      <c r="M36" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="R36" s="12" t="s">
         <v>40</v>
@@ -4127,7 +4194,7 @@
         <v>41</v>
       </c>
       <c r="T36" s="12" t="n">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="U36" s="12" t="n">
         <v>8</v>
@@ -4136,69 +4203,69 @@
         <v>16</v>
       </c>
       <c r="W36" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X36" s="12" t="n">
-        <v>800</v>
+        <v>4</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Y36" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="N37" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P37" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="R37" s="12" t="s">
         <v>40</v>
@@ -4216,7 +4283,7 @@
         <v>16</v>
       </c>
       <c r="W37" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X37" s="0" t="n">
         <v>0</v>
@@ -4225,33 +4292,33 @@
         <v>42</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E38" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>31</v>
+      <c r="H38" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>32</v>
@@ -4265,20 +4332,20 @@
       <c r="L38" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>55</v>
+      <c r="M38" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="R38" s="12" t="s">
         <v>40</v>
@@ -4296,7 +4363,7 @@
         <v>16</v>
       </c>
       <c r="W38" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X38" s="12" t="n">
         <v>430</v>
@@ -4305,33 +4372,33 @@
         <v>42</v>
       </c>
       <c r="Z38" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>31</v>
+      <c r="H39" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>32</v>
@@ -4345,20 +4412,20 @@
       <c r="L39" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>78</v>
+      <c r="M39" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="R39" s="12" t="s">
         <v>40</v>
@@ -4367,7 +4434,7 @@
         <v>41</v>
       </c>
       <c r="T39" s="12" t="n">
-        <v>32768</v>
+        <v>16384</v>
       </c>
       <c r="U39" s="12" t="n">
         <v>8</v>
@@ -4376,7 +4443,7 @@
         <v>16</v>
       </c>
       <c r="W39" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X39" s="12" t="n">
         <v>430</v>
@@ -4385,33 +4452,33 @@
         <v>42</v>
       </c>
       <c r="Z39" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>166</v>
+        <v>112</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E40" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>31</v>
+      <c r="H40" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>32</v>
@@ -4425,20 +4492,20 @@
       <c r="L40" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>78</v>
+      <c r="M40" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P40" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="R40" s="12" t="s">
         <v>40</v>
@@ -4447,51 +4514,51 @@
         <v>41</v>
       </c>
       <c r="T40" s="12" t="n">
-        <v>7822</v>
+        <v>8192</v>
       </c>
       <c r="U40" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V40" s="12" t="n">
         <v>8</v>
       </c>
       <c r="W40" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X40" s="12" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z40" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E41" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>31</v>
+      <c r="H41" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>32</v>
@@ -4506,19 +4573,19 @@
         <v>35</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P41" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="R41" s="12" t="s">
         <v>40</v>
@@ -4527,51 +4594,51 @@
         <v>41</v>
       </c>
       <c r="T41" s="12" t="n">
-        <v>7822</v>
+        <v>8192</v>
       </c>
       <c r="U41" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V41" s="12" t="n">
         <v>8</v>
       </c>
       <c r="W41" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X41" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y41" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z41" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E42" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>31</v>
+      <c r="H42" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>32</v>
@@ -4586,19 +4653,19 @@
         <v>35</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P42" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="R42" s="12" t="s">
         <v>40</v>
@@ -4607,19 +4674,19 @@
         <v>41</v>
       </c>
       <c r="T42" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="V42" s="12" t="n">
-        <v>16</v>
-      </c>
       <c r="W42" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X42" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y42" s="12" t="s">
         <v>42</v>
@@ -4630,22 +4697,22 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E43" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>30</v>
@@ -4665,20 +4732,20 @@
       <c r="L43" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="11" t="s">
-        <v>36</v>
+      <c r="M43" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P43" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="R43" s="12" t="s">
         <v>40</v>
@@ -4699,7 +4766,7 @@
         <v>2</v>
       </c>
       <c r="X43" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y43" s="12" t="s">
         <v>42</v>
@@ -4710,22 +4777,22 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E44" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>30</v>
@@ -4745,20 +4812,20 @@
       <c r="L44" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M44" s="11" t="s">
-        <v>36</v>
+      <c r="M44" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P44" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="R44" s="12" t="s">
         <v>40</v>
@@ -4767,45 +4834,45 @@
         <v>41</v>
       </c>
       <c r="T44" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U44" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V44" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W44" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X44" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y44" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z44" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="E45" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>30</v>
@@ -4825,20 +4892,20 @@
       <c r="L45" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M45" s="11" t="s">
-        <v>36</v>
+      <c r="M45" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P45" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="R45" s="12" t="s">
         <v>40</v>
@@ -4847,45 +4914,45 @@
         <v>41</v>
       </c>
       <c r="T45" s="12" t="n">
-        <v>8192</v>
+        <v>32768</v>
       </c>
       <c r="U45" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V45" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W45" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="X45" s="12" t="n">
-        <v>230</v>
+      <c r="X45" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Y45" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z45" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="E46" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>30</v>
@@ -4905,20 +4972,20 @@
       <c r="L46" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M46" s="9" t="s">
-        <v>51</v>
+      <c r="M46" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P46" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="R46" s="12" t="s">
         <v>40</v>
@@ -4927,45 +4994,45 @@
         <v>41</v>
       </c>
       <c r="T46" s="12" t="n">
-        <v>8192</v>
+        <v>32768</v>
       </c>
       <c r="U46" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V46" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W46" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X46" s="12" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="Y46" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z46" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="E47" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>30</v>
@@ -4986,19 +5053,19 @@
         <v>35</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P47" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="R47" s="12" t="s">
         <v>40</v>
@@ -5007,7 +5074,7 @@
         <v>41</v>
       </c>
       <c r="T47" s="12" t="n">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="U47" s="12" t="n">
         <v>8</v>
@@ -5019,33 +5086,33 @@
         <v>2</v>
       </c>
       <c r="X47" s="12" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="Y47" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z47" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="E48" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>30</v>
@@ -5066,19 +5133,19 @@
         <v>35</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P48" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q48" s="12" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="R48" s="12" t="s">
         <v>40</v>
@@ -5087,13 +5154,13 @@
         <v>41</v>
       </c>
       <c r="T48" s="12" t="n">
-        <v>32768</v>
+        <v>7822</v>
       </c>
       <c r="U48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V48" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W48" s="12" t="n">
         <v>2</v>
@@ -5105,27 +5172,27 @@
         <v>42</v>
       </c>
       <c r="Z48" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="E49" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>30</v>
@@ -5146,19 +5213,19 @@
         <v>35</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="P49" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="R49" s="12" t="s">
         <v>40</v>
@@ -5167,45 +5234,45 @@
         <v>41</v>
       </c>
       <c r="T49" s="12" t="n">
-        <v>32768</v>
+        <v>7822</v>
       </c>
       <c r="U49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V49" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W49" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="X49" s="0" t="n">
-        <v>0</v>
+      <c r="X49" s="12" t="n">
+        <v>230</v>
       </c>
       <c r="Y49" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z49" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="E50" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>30</v>
@@ -5225,20 +5292,20 @@
       <c r="L50" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>158</v>
+      <c r="M50" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P50" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="R50" s="12" t="s">
         <v>40</v>
@@ -5259,33 +5326,33 @@
         <v>2</v>
       </c>
       <c r="X50" s="12" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="Y50" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z50" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="E51" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>30</v>
@@ -5305,20 +5372,20 @@
       <c r="L51" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>55</v>
+      <c r="M51" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P51" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q51" s="12" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="R51" s="12" t="s">
         <v>40</v>
@@ -5327,7 +5394,7 @@
         <v>41</v>
       </c>
       <c r="T51" s="12" t="n">
-        <v>24576</v>
+        <v>16384</v>
       </c>
       <c r="U51" s="12" t="n">
         <v>8</v>
@@ -5339,33 +5406,33 @@
         <v>2</v>
       </c>
       <c r="X51" s="12" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="Y51" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z51" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="E52" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>30</v>
@@ -5385,20 +5452,20 @@
       <c r="L52" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>205</v>
+      <c r="M52" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="P52" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q52" s="12" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="R52" s="12" t="s">
         <v>40</v>
@@ -5407,45 +5474,45 @@
         <v>41</v>
       </c>
       <c r="T52" s="12" t="n">
-        <v>24576</v>
+        <v>8192</v>
       </c>
       <c r="U52" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V52" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W52" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X52" s="12" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="Y52" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z52" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E53" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>30</v>
@@ -5465,20 +5532,20 @@
       <c r="L53" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M53" s="1" t="s">
-        <v>158</v>
+      <c r="M53" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="P53" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q53" s="12" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="R53" s="12" t="s">
         <v>40</v>
@@ -5487,51 +5554,51 @@
         <v>41</v>
       </c>
       <c r="T53" s="12" t="n">
-        <v>24576</v>
+        <v>8192</v>
       </c>
       <c r="U53" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V53" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W53" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X53" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y53" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z53" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E54" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>92</v>
+      <c r="H54" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>32</v>
@@ -5545,20 +5612,20 @@
       <c r="L54" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>55</v>
+      <c r="M54" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="P54" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q54" s="12" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="R54" s="12" t="s">
         <v>40</v>
@@ -5567,51 +5634,51 @@
         <v>41</v>
       </c>
       <c r="T54" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U54" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V54" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W54" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X54" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y54" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z54" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E55" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>92</v>
+      <c r="H55" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>32</v>
@@ -5626,19 +5693,19 @@
         <v>35</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="P55" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q55" s="12" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="R55" s="12" t="s">
         <v>40</v>
@@ -5647,51 +5714,51 @@
         <v>41</v>
       </c>
       <c r="T55" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U55" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V55" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W55" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X55" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y55" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z55" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E56" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>92</v>
+      <c r="H56" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>32</v>
@@ -5706,19 +5773,19 @@
         <v>35</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q56" s="12" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="R56" s="12" t="s">
         <v>40</v>
@@ -5727,51 +5794,51 @@
         <v>41</v>
       </c>
       <c r="T56" s="12" t="n">
-        <v>8192</v>
+        <v>32768</v>
       </c>
       <c r="U56" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V56" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W56" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X56" s="12" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="Y56" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z56" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E57" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>92</v>
+      <c r="H57" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>32</v>
@@ -5786,19 +5853,19 @@
         <v>35</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P57" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q57" s="12" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="R57" s="12" t="s">
         <v>40</v>
@@ -5807,51 +5874,51 @@
         <v>41</v>
       </c>
       <c r="T57" s="12" t="n">
-        <v>8192</v>
+        <v>32768</v>
       </c>
       <c r="U57" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V57" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W57" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="X57" s="12" t="n">
-        <v>800</v>
+      <c r="X57" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Y57" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z57" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E58" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>92</v>
+      <c r="H58" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>32</v>
@@ -5866,19 +5933,19 @@
         <v>35</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P58" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="R58" s="12" t="s">
         <v>40</v>
@@ -5887,51 +5954,51 @@
         <v>41</v>
       </c>
       <c r="T58" s="12" t="n">
-        <v>7822</v>
+        <v>16384</v>
       </c>
       <c r="U58" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V58" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W58" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="X58" s="0" t="n">
-        <v>0</v>
+      <c r="X58" s="12" t="n">
+        <v>430</v>
       </c>
       <c r="Y58" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z58" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E59" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>92</v>
+      <c r="H59" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>32</v>
@@ -5945,20 +6012,20 @@
       <c r="L59" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M59" s="11" t="s">
-        <v>36</v>
+      <c r="M59" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P59" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q59" s="12" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="R59" s="12" t="s">
         <v>40</v>
@@ -5967,7 +6034,7 @@
         <v>41</v>
       </c>
       <c r="T59" s="12" t="n">
-        <v>16384</v>
+        <v>24576</v>
       </c>
       <c r="U59" s="12" t="n">
         <v>8</v>
@@ -5985,33 +6052,33 @@
         <v>42</v>
       </c>
       <c r="Z59" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E60" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>92</v>
+      <c r="H60" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>32</v>
@@ -6025,20 +6092,20 @@
       <c r="L60" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M60" s="11" t="s">
-        <v>36</v>
+      <c r="M60" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P60" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q60" s="12" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="R60" s="12" t="s">
         <v>40</v>
@@ -6047,7 +6114,7 @@
         <v>41</v>
       </c>
       <c r="T60" s="12" t="n">
-        <v>16384</v>
+        <v>24576</v>
       </c>
       <c r="U60" s="12" t="n">
         <v>8</v>
@@ -6065,33 +6132,33 @@
         <v>42</v>
       </c>
       <c r="Z60" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>233</v>
+      <c r="D61" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E61" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>92</v>
+      <c r="H61" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>32</v>
@@ -6105,20 +6172,20 @@
       <c r="L61" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M61" s="11" t="s">
-        <v>36</v>
+      <c r="M61" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P61" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q61" s="12" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="R61" s="12" t="s">
         <v>40</v>
@@ -6127,7 +6194,7 @@
         <v>41</v>
       </c>
       <c r="T61" s="12" t="n">
-        <v>16384</v>
+        <v>24576</v>
       </c>
       <c r="U61" s="12" t="n">
         <v>8</v>
@@ -6145,33 +6212,33 @@
         <v>42</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>233</v>
+      <c r="D62" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E62" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>31</v>
+      <c r="H62" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>32</v>
@@ -6185,20 +6252,20 @@
       <c r="L62" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M62" s="11" t="s">
-        <v>36</v>
+      <c r="M62" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P62" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q62" s="12" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="R62" s="12" t="s">
         <v>40</v>
@@ -6225,33 +6292,33 @@
         <v>42</v>
       </c>
       <c r="Z62" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>233</v>
+      <c r="D63" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E63" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="10" t="s">
-        <v>31</v>
+      <c r="H63" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>32</v>
@@ -6266,19 +6333,19 @@
         <v>35</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P63" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q63" s="12" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="R63" s="12" t="s">
         <v>40</v>
@@ -6287,51 +6354,51 @@
         <v>41</v>
       </c>
       <c r="T63" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U63" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V63" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W63" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X63" s="12" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="Y63" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z63" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>233</v>
+      <c r="D64" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E64" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>31</v>
+      <c r="H64" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>32</v>
@@ -6346,19 +6413,19 @@
         <v>35</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P64" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q64" s="12" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="R64" s="12" t="s">
         <v>40</v>
@@ -6367,51 +6434,51 @@
         <v>41</v>
       </c>
       <c r="T64" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U64" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V64" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W64" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X64" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y64" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z64" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>233</v>
+      <c r="D65" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E65" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>31</v>
+      <c r="H65" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>32</v>
@@ -6426,19 +6493,19 @@
         <v>35</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P65" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q65" s="12" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="R65" s="12" t="s">
         <v>40</v>
@@ -6447,78 +6514,78 @@
         <v>41</v>
       </c>
       <c r="T65" s="12" t="n">
-        <v>24576</v>
+        <v>8192</v>
       </c>
       <c r="U65" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V65" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W65" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X65" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y65" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E66" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="N66" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P66" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q66" s="12" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="R66" s="12" t="s">
         <v>40</v>
@@ -6527,51 +6594,51 @@
         <v>41</v>
       </c>
       <c r="T66" s="12" t="n">
-        <v>24576</v>
+        <v>7822</v>
       </c>
       <c r="U66" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V66" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W66" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="X66" s="12" t="n">
-        <v>230</v>
+      <c r="X66" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Y66" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z66" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>233</v>
+      <c r="D67" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E67" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="10" t="s">
-        <v>31</v>
+      <c r="H67" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>32</v>
@@ -6585,20 +6652,20 @@
       <c r="L67" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>224</v>
+      <c r="M67" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P67" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q67" s="12" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="R67" s="12" t="s">
         <v>40</v>
@@ -6607,51 +6674,51 @@
         <v>41</v>
       </c>
       <c r="T67" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U67" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V67" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W67" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X67" s="12" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="Y67" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z67" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>233</v>
+      <c r="D68" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="E68" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="10" t="s">
-        <v>31</v>
+      <c r="H68" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>32</v>
@@ -6665,20 +6732,20 @@
       <c r="L68" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>55</v>
+      <c r="M68" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P68" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="R68" s="12" t="s">
         <v>40</v>
@@ -6687,13 +6754,13 @@
         <v>41</v>
       </c>
       <c r="T68" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U68" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V68" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W68" s="12" t="n">
         <v>2</v>
@@ -6705,33 +6772,33 @@
         <v>42</v>
       </c>
       <c r="Z68" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E69" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H69" s="10" t="s">
-        <v>31</v>
+      <c r="H69" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>32</v>
@@ -6745,20 +6812,20 @@
       <c r="L69" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>205</v>
+      <c r="M69" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N69" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P69" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="Q69" s="12" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="R69" s="12" t="s">
         <v>40</v>
@@ -6767,45 +6834,45 @@
         <v>41</v>
       </c>
       <c r="T69" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U69" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V69" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W69" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X69" s="12" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="Y69" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z69" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E70" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>30</v>
@@ -6825,20 +6892,20 @@
       <c r="L70" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>55</v>
+      <c r="M70" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N70" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P70" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="R70" s="12" t="s">
         <v>40</v>
@@ -6847,45 +6914,45 @@
         <v>41</v>
       </c>
       <c r="T70" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U70" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V70" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W70" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X70" s="12" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="Y70" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z70" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E71" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>30</v>
@@ -6906,19 +6973,19 @@
         <v>35</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N71" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P71" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="R71" s="12" t="s">
         <v>40</v>
@@ -6927,19 +6994,19 @@
         <v>41</v>
       </c>
       <c r="T71" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U71" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V71" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W71" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X71" s="12" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="Y71" s="12" t="s">
         <v>42</v>
@@ -6950,28 +7017,28 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E72" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>92</v>
+      <c r="H72" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>32</v>
@@ -6986,19 +7053,19 @@
         <v>35</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N72" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P72" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q72" s="12" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="R72" s="12" t="s">
         <v>40</v>
@@ -7007,19 +7074,19 @@
         <v>41</v>
       </c>
       <c r="T72" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U72" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V72" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W72" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X72" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y72" s="12" t="s">
         <v>42</v>
@@ -7030,28 +7097,28 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E73" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>92</v>
+      <c r="H73" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>32</v>
@@ -7066,19 +7133,19 @@
         <v>35</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="N73" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P73" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q73" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="R73" s="12" t="s">
         <v>40</v>
@@ -7087,7 +7154,7 @@
         <v>41</v>
       </c>
       <c r="T73" s="12" t="n">
-        <v>16384</v>
+        <v>24576</v>
       </c>
       <c r="U73" s="12" t="n">
         <v>8</v>
@@ -7099,66 +7166,66 @@
         <v>2</v>
       </c>
       <c r="X73" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y73" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z73" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E74" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L74" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="N74" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P74" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q74" s="12" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="R74" s="12" t="s">
         <v>40</v>
@@ -7167,7 +7234,7 @@
         <v>41</v>
       </c>
       <c r="T74" s="12" t="n">
-        <v>16384</v>
+        <v>24576</v>
       </c>
       <c r="U74" s="12" t="n">
         <v>8</v>
@@ -7179,66 +7246,66 @@
         <v>2</v>
       </c>
       <c r="X74" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y74" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z74" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M75" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E75" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K75" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L75" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M75" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="N75" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P75" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q75" s="12" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="R75" s="12" t="s">
         <v>40</v>
@@ -7247,51 +7314,51 @@
         <v>41</v>
       </c>
       <c r="T75" s="12" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="U75" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V75" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W75" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X75" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y75" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z75" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E76" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>92</v>
+      <c r="H76" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>32</v>
@@ -7305,20 +7372,20 @@
       <c r="L76" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M76" s="9" t="s">
-        <v>51</v>
+      <c r="M76" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="N76" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
+      </c>
+      <c r="P76" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q76" s="12" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="R76" s="12" t="s">
         <v>40</v>
@@ -7327,51 +7394,51 @@
         <v>41</v>
       </c>
       <c r="T76" s="12" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="U76" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V76" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W76" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X76" s="12" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="Y76" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z76" s="12" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E77" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>92</v>
+      <c r="H77" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>32</v>
@@ -7385,20 +7452,20 @@
       <c r="L77" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M77" s="9" t="s">
-        <v>51</v>
+      <c r="M77" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>93</v>
+        <v>58</v>
+      </c>
+      <c r="P77" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q77" s="12" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="R77" s="12" t="s">
         <v>40</v>
@@ -7407,13 +7474,13 @@
         <v>41</v>
       </c>
       <c r="T77" s="12" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="U77" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V77" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W77" s="12" t="n">
         <v>2</v>
@@ -7425,11 +7492,655 @@
         <v>42</v>
       </c>
       <c r="Z77" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P78" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q78" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="R78" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S78" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T78" s="12" t="n">
+        <v>8192</v>
+      </c>
+      <c r="U78" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="W78" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X78" s="12" t="n">
+        <v>430</v>
+      </c>
+      <c r="Y78" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z78" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E79" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q79" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="R79" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S79" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T79" s="12" t="n">
+        <v>8192</v>
+      </c>
+      <c r="U79" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="W79" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X79" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y79" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z79" s="12" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N80" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q80" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="R80" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S80" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T80" s="12" t="n">
+        <v>8192</v>
+      </c>
+      <c r="U80" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="W80" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X80" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y80" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z80" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N81" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="R81" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S81" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T81" s="12" t="n">
+        <v>16384</v>
+      </c>
+      <c r="U81" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="V81" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="W81" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X81" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y81" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z81" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M82" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q82" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="R82" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S82" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T82" s="12" t="n">
+        <v>16384</v>
+      </c>
+      <c r="U82" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="V82" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="W82" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X82" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y82" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z82" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N83" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="R83" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S83" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T83" s="12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="U83" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="V83" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="W83" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X83" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y83" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z83" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M84" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N84" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O84" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q84" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="R84" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S84" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T84" s="12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="U84" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="V84" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="W84" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X84" s="12" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y84" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z84" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E85" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N85" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q85" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="R85" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S85" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T85" s="12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="U85" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="V85" s="12" t="n">
+        <v>16</v>
+      </c>
+      <c r="W85" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="X85" s="12" t="n">
+        <v>430</v>
+      </c>
+      <c r="Y85" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z85" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:Z77"/>
+  <autoFilter ref="A1:Z85"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/dados_servidores_teste.xlsx
+++ b/dados_servidores_teste.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$Z$85</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$Z$76</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="274">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -295,244 +295,187 @@
     <t xml:space="preserve">10.0.14404</t>
   </si>
   <si>
-    <t xml:space="preserve">MA0302</t>
+    <t xml:space="preserve">MA0304</t>
   </si>
   <si>
     <t xml:space="preserve">M3</t>
   </si>
   <si>
-    <t xml:space="preserve">10.000.001.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14405</t>
+    <t xml:space="preserve">10.000.001.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micro Focus Asset Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0315</t>
   </si>
   <si>
     <t xml:space="preserve">MA0303</t>
   </si>
   <si>
-    <t xml:space="preserve">10.000.001.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micro Focus Asset Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14409</t>
+    <t xml:space="preserve">10.000.001.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0319</t>
   </si>
   <si>
     <t xml:space="preserve">MA0307</t>
   </si>
   <si>
-    <t xml:space="preserve">10.000.001.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14410</t>
+    <t xml:space="preserve">10.000.001.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0320</t>
   </si>
   <si>
     <t xml:space="preserve">MA0308</t>
   </si>
   <si>
-    <t xml:space="preserve">10.000.001.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14412</t>
+    <t xml:space="preserve">10.000.001.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.000.001.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0322</t>
   </si>
   <si>
     <t xml:space="preserve">MA0310</t>
   </si>
   <si>
-    <t xml:space="preserve">10.000.001.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14413</t>
+    <t xml:space="preserve">10.000.001.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0323</t>
   </si>
   <si>
     <t xml:space="preserve">MA0311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.000.001.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14414</t>
+    <t xml:space="preserve">10.000.001.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0324</t>
   </si>
   <si>
     <t xml:space="preserve">MA0312</t>
   </si>
   <si>
-    <t xml:space="preserve">10.000.001.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14415</t>
+    <t xml:space="preserve">10.000.001.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0325</t>
   </si>
   <si>
     <t xml:space="preserve">MA0313</t>
   </si>
   <si>
-    <t xml:space="preserve">10.000.001.83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14416</t>
+    <t xml:space="preserve">10.000.001.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0.14428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA0326</t>
   </si>
   <si>
     <t xml:space="preserve">MA0314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14427</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.000.001.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0.14428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA0326</t>
   </si>
   <si>
     <t xml:space="preserve">10.000.001.96</t>
@@ -1188,11 +1131,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O3" activeCellId="0" sqref="O3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.06"/>
@@ -3005,12 +2948,12 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>27</v>
@@ -3027,8 +2970,8 @@
       <c r="G22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>31</v>
+      <c r="H22" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>32</v>
@@ -3043,19 +2986,19 @@
         <v>35</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="N22" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R22" s="12" t="s">
         <v>40</v>
@@ -3064,13 +3007,13 @@
         <v>41</v>
       </c>
       <c r="T22" s="12" t="n">
-        <v>7822</v>
+        <v>16384</v>
       </c>
       <c r="U22" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V22" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W22" s="12" t="n">
         <v>2</v>
@@ -3084,18 +3027,13 @@
       <c r="Z22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AMF22" s="0"/>
-      <c r="AMG22" s="0"/>
-      <c r="AMH22" s="0"/>
-      <c r="AMI22" s="0"/>
-      <c r="AMJ22" s="0"/>
-    </row>
-    <row r="23" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>27</v>
@@ -3107,13 +3045,13 @@
         <v>1</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>31</v>
+      <c r="H23" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>32</v>
@@ -3128,19 +3066,19 @@
         <v>35</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P23" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R23" s="12" t="s">
         <v>40</v>
@@ -3149,38 +3087,33 @@
         <v>41</v>
       </c>
       <c r="T23" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U23" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V23" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W23" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X23" s="12" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="Y23" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AMF23" s="0"/>
-      <c r="AMG23" s="0"/>
-      <c r="AMH23" s="0"/>
-      <c r="AMI23" s="0"/>
-      <c r="AMJ23" s="0"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>27</v>
@@ -3192,13 +3125,13 @@
         <v>1</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>32</v>
@@ -3212,8 +3145,8 @@
       <c r="L24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M24" s="9" t="s">
-        <v>47</v>
+      <c r="M24" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>48</v>
@@ -3222,10 +3155,10 @@
         <v>58</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R24" s="12" t="s">
         <v>40</v>
@@ -3243,7 +3176,7 @@
         <v>16</v>
       </c>
       <c r="W24" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X24" s="12" t="n">
         <v>230</v>
@@ -3252,15 +3185,15 @@
         <v>42</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>27</v>
@@ -3272,13 +3205,13 @@
         <v>1</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>32</v>
@@ -3292,8 +3225,8 @@
       <c r="L25" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M25" s="9" t="s">
-        <v>47</v>
+      <c r="M25" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>48</v>
@@ -3302,10 +3235,10 @@
         <v>58</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R25" s="12" t="s">
         <v>40</v>
@@ -3323,7 +3256,7 @@
         <v>16</v>
       </c>
       <c r="W25" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X25" s="12" t="n">
         <v>230</v>
@@ -3332,7 +3265,7 @@
         <v>42</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,7 +3273,7 @@
         <v>106</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>27</v>
@@ -3352,13 +3285,13 @@
         <v>1</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>32</v>
@@ -3372,20 +3305,20 @@
       <c r="L26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>36</v>
+      <c r="M26" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="R26" s="12" t="s">
         <v>40</v>
@@ -3405,40 +3338,40 @@
       <c r="W26" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="X26" s="12" t="n">
-        <v>230</v>
+      <c r="X26" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Y26" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E27" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>32</v>
@@ -3452,20 +3385,20 @@
       <c r="L27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M27" s="11" t="s">
-        <v>36</v>
+      <c r="M27" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R27" s="12" t="s">
         <v>40</v>
@@ -3474,7 +3407,7 @@
         <v>41</v>
       </c>
       <c r="T27" s="12" t="n">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="U27" s="12" t="n">
         <v>8</v>
@@ -3485,40 +3418,40 @@
       <c r="W27" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="X27" s="12" t="n">
-        <v>230</v>
+      <c r="X27" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Y27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E28" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>32</v>
@@ -3532,8 +3465,8 @@
       <c r="L28" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M28" s="11" t="s">
-        <v>36</v>
+      <c r="M28" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>48</v>
@@ -3542,10 +3475,10 @@
         <v>58</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R28" s="12" t="s">
         <v>40</v>
@@ -3554,7 +3487,7 @@
         <v>41</v>
       </c>
       <c r="T28" s="12" t="n">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="U28" s="12" t="n">
         <v>8</v>
@@ -3565,40 +3498,40 @@
       <c r="W28" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="X28" s="12" t="n">
-        <v>230</v>
+      <c r="X28" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Y28" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E29" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>32</v>
@@ -3622,10 +3555,10 @@
         <v>58</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="R29" s="12" t="s">
         <v>40</v>
@@ -3634,7 +3567,7 @@
         <v>41</v>
       </c>
       <c r="T29" s="12" t="n">
-        <v>16384</v>
+        <v>32768</v>
       </c>
       <c r="U29" s="12" t="n">
         <v>8</v>
@@ -3646,39 +3579,39 @@
         <v>4</v>
       </c>
       <c r="X29" s="12" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="Y29" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E30" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>32</v>
@@ -3692,8 +3625,8 @@
       <c r="L30" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M30" s="9" t="s">
-        <v>47</v>
+      <c r="M30" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>48</v>
@@ -3702,10 +3635,10 @@
         <v>58</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="R30" s="12" t="s">
         <v>40</v>
@@ -3726,39 +3659,39 @@
         <v>4</v>
       </c>
       <c r="X30" s="12" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="Y30" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E31" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>32</v>
@@ -3772,8 +3705,8 @@
       <c r="L31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M31" s="9" t="s">
-        <v>47</v>
+      <c r="M31" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N31" s="11" t="s">
         <v>48</v>
@@ -3782,10 +3715,10 @@
         <v>58</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="R31" s="12" t="s">
         <v>40</v>
@@ -3794,51 +3727,51 @@
         <v>41</v>
       </c>
       <c r="T31" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U31" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V31" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W31" s="12" t="n">
         <v>4</v>
       </c>
       <c r="X31" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y31" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E32" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>32</v>
@@ -3862,10 +3795,10 @@
         <v>58</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="R32" s="12" t="s">
         <v>40</v>
@@ -3874,51 +3807,51 @@
         <v>41</v>
       </c>
       <c r="T32" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U32" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V32" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W32" s="12" t="n">
         <v>4</v>
       </c>
       <c r="X32" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y32" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E33" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>32</v>
@@ -3932,20 +3865,20 @@
       <c r="L33" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>129</v>
+      <c r="M33" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="R33" s="12" t="s">
         <v>40</v>
@@ -3954,51 +3887,51 @@
         <v>41</v>
       </c>
       <c r="T33" s="12" t="n">
-        <v>24576</v>
+        <v>8192</v>
       </c>
       <c r="U33" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V33" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W33" s="12" t="n">
         <v>4</v>
       </c>
       <c r="X33" s="12" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="Y33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E34" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>99</v>
+      <c r="H34" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>32</v>
@@ -4012,8 +3945,8 @@
       <c r="L34" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>129</v>
+      <c r="M34" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N34" s="11" t="s">
         <v>48</v>
@@ -4021,11 +3954,11 @@
       <c r="O34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>100</v>
+      <c r="P34" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="R34" s="12" t="s">
         <v>40</v>
@@ -4034,7 +3967,7 @@
         <v>41</v>
       </c>
       <c r="T34" s="12" t="n">
-        <v>24576</v>
+        <v>16384</v>
       </c>
       <c r="U34" s="12" t="n">
         <v>8</v>
@@ -4043,42 +3976,42 @@
         <v>16</v>
       </c>
       <c r="W34" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="X34" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X34" s="12" t="n">
+        <v>800</v>
       </c>
       <c r="Y34" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E35" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>99</v>
+      <c r="H35" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>32</v>
@@ -4092,8 +4025,8 @@
       <c r="L35" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M35" s="9" t="s">
-        <v>84</v>
+      <c r="M35" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="N35" s="11" t="s">
         <v>48</v>
@@ -4101,11 +4034,11 @@
       <c r="O35" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>100</v>
+      <c r="P35" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="R35" s="12" t="s">
         <v>40</v>
@@ -4123,42 +4056,42 @@
         <v>16</v>
       </c>
       <c r="W35" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="X35" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X35" s="12" t="n">
+        <v>800</v>
       </c>
       <c r="Y35" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z35" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E36" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>99</v>
+      <c r="H36" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>32</v>
@@ -4172,8 +4105,8 @@
       <c r="L36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M36" s="9" t="s">
-        <v>84</v>
+      <c r="M36" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>48</v>
@@ -4181,11 +4114,11 @@
       <c r="O36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>100</v>
+      <c r="P36" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="R36" s="12" t="s">
         <v>40</v>
@@ -4203,7 +4136,7 @@
         <v>16</v>
       </c>
       <c r="W36" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X36" s="0" t="n">
         <v>0</v>
@@ -4212,33 +4145,33 @@
         <v>42</v>
       </c>
       <c r="Z36" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E37" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>99</v>
+      <c r="H37" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I37" s="9" t="s">
         <v>32</v>
@@ -4253,19 +4186,19 @@
         <v>35</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="N37" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="R37" s="12" t="s">
         <v>40</v>
@@ -4283,21 +4216,21 @@
         <v>16</v>
       </c>
       <c r="W37" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="X37" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="X37" s="12" t="n">
+        <v>430</v>
       </c>
       <c r="Y37" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z37" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>106</v>
@@ -4306,19 +4239,19 @@
         <v>27</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E38" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>99</v>
+      <c r="H38" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>32</v>
@@ -4332,20 +4265,20 @@
       <c r="L38" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>36</v>
+      <c r="M38" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="R38" s="12" t="s">
         <v>40</v>
@@ -4363,7 +4296,7 @@
         <v>16</v>
       </c>
       <c r="W38" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X38" s="12" t="n">
         <v>430</v>
@@ -4372,33 +4305,33 @@
         <v>42</v>
       </c>
       <c r="Z38" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E39" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>99</v>
+      <c r="H39" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I39" s="9" t="s">
         <v>32</v>
@@ -4412,8 +4345,8 @@
       <c r="L39" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>36</v>
+      <c r="M39" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="N39" s="11" t="s">
         <v>48</v>
@@ -4421,11 +4354,11 @@
       <c r="O39" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>100</v>
+      <c r="P39" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="R39" s="12" t="s">
         <v>40</v>
@@ -4434,16 +4367,16 @@
         <v>41</v>
       </c>
       <c r="T39" s="12" t="n">
-        <v>16384</v>
+        <v>7822</v>
       </c>
       <c r="U39" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="V39" s="12" t="n">
-        <v>16</v>
-      </c>
       <c r="W39" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X39" s="12" t="n">
         <v>430</v>
@@ -4452,33 +4385,33 @@
         <v>42</v>
       </c>
       <c r="Z39" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E40" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>99</v>
+      <c r="H40" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>32</v>
@@ -4492,8 +4425,8 @@
       <c r="L40" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M40" s="11" t="s">
-        <v>36</v>
+      <c r="M40" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>48</v>
@@ -4501,11 +4434,11 @@
       <c r="O40" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>100</v>
+      <c r="P40" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="R40" s="12" t="s">
         <v>40</v>
@@ -4514,51 +4447,51 @@
         <v>41</v>
       </c>
       <c r="T40" s="12" t="n">
-        <v>8192</v>
+        <v>7822</v>
       </c>
       <c r="U40" s="12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V40" s="12" t="n">
         <v>8</v>
       </c>
       <c r="W40" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X40" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y40" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z40" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E41" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>99</v>
+      <c r="H41" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>32</v>
@@ -4573,19 +4506,19 @@
         <v>35</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N41" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="R41" s="12" t="s">
         <v>40</v>
@@ -4594,19 +4527,19 @@
         <v>41</v>
       </c>
       <c r="T41" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U41" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V41" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W41" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X41" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y41" s="12" t="s">
         <v>42</v>
@@ -4617,28 +4550,28 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E42" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>99</v>
+      <c r="H42" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>32</v>
@@ -4652,20 +4585,20 @@
       <c r="L42" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M42" s="9" t="s">
-        <v>47</v>
+      <c r="M42" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="R42" s="12" t="s">
         <v>40</v>
@@ -4674,19 +4607,19 @@
         <v>41</v>
       </c>
       <c r="T42" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U42" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V42" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W42" s="12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X42" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y42" s="12" t="s">
         <v>42</v>
@@ -4697,22 +4630,22 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="E43" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>30</v>
@@ -4732,8 +4665,8 @@
       <c r="L43" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M43" s="9" t="s">
-        <v>47</v>
+      <c r="M43" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>48</v>
@@ -4745,7 +4678,7 @@
         <v>38</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="R43" s="12" t="s">
         <v>40</v>
@@ -4754,19 +4687,19 @@
         <v>41</v>
       </c>
       <c r="T43" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V43" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W43" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X43" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y43" s="12" t="s">
         <v>42</v>
@@ -4777,22 +4710,22 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E44" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>30</v>
@@ -4812,20 +4745,20 @@
       <c r="L44" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>129</v>
+      <c r="M44" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P44" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="R44" s="12" t="s">
         <v>40</v>
@@ -4834,45 +4767,45 @@
         <v>41</v>
       </c>
       <c r="T44" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V44" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W44" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X44" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y44" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z44" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E45" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>30</v>
@@ -4892,20 +4825,20 @@
       <c r="L45" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>167</v>
+      <c r="M45" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N45" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P45" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="R45" s="12" t="s">
         <v>40</v>
@@ -4914,45 +4847,45 @@
         <v>41</v>
       </c>
       <c r="T45" s="12" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="U45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V45" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W45" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="X45" s="0" t="n">
-        <v>0</v>
+      <c r="X45" s="12" t="n">
+        <v>230</v>
       </c>
       <c r="Y45" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z45" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E46" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>30</v>
@@ -4972,20 +4905,20 @@
       <c r="L46" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>129</v>
+      <c r="M46" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N46" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P46" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="R46" s="12" t="s">
         <v>40</v>
@@ -4994,7 +4927,7 @@
         <v>41</v>
       </c>
       <c r="T46" s="12" t="n">
-        <v>32768</v>
+        <v>16384</v>
       </c>
       <c r="U46" s="12" t="n">
         <v>8</v>
@@ -5006,33 +4939,33 @@
         <v>2</v>
       </c>
       <c r="X46" s="12" t="n">
-        <v>430</v>
+        <v>230</v>
       </c>
       <c r="Y46" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z46" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="E47" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>30</v>
@@ -5053,19 +4986,19 @@
         <v>35</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="N47" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P47" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="R47" s="12" t="s">
         <v>40</v>
@@ -5092,27 +5025,27 @@
         <v>42</v>
       </c>
       <c r="Z47" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E48" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>30</v>
@@ -5133,19 +5066,19 @@
         <v>35</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P48" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q48" s="12" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="R48" s="12" t="s">
         <v>40</v>
@@ -5154,45 +5087,45 @@
         <v>41</v>
       </c>
       <c r="T48" s="12" t="n">
-        <v>7822</v>
+        <v>32768</v>
       </c>
       <c r="U48" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V48" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W48" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="X48" s="12" t="n">
-        <v>430</v>
+      <c r="X48" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="Y48" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z48" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E49" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>30</v>
@@ -5212,20 +5145,20 @@
       <c r="L49" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M49" s="9" t="s">
-        <v>84</v>
+      <c r="M49" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="N49" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="P49" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="R49" s="12" t="s">
         <v>40</v>
@@ -5234,45 +5167,45 @@
         <v>41</v>
       </c>
       <c r="T49" s="12" t="n">
-        <v>7822</v>
+        <v>16384</v>
       </c>
       <c r="U49" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V49" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W49" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X49" s="12" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="Y49" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z49" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E50" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>30</v>
@@ -5292,8 +5225,8 @@
       <c r="L50" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M50" s="9" t="s">
-        <v>84</v>
+      <c r="M50" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="N50" s="11" t="s">
         <v>48</v>
@@ -5305,7 +5238,7 @@
         <v>38</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="R50" s="12" t="s">
         <v>40</v>
@@ -5314,7 +5247,7 @@
         <v>41</v>
       </c>
       <c r="T50" s="12" t="n">
-        <v>16384</v>
+        <v>24576</v>
       </c>
       <c r="U50" s="12" t="n">
         <v>8</v>
@@ -5326,33 +5259,33 @@
         <v>2</v>
       </c>
       <c r="X50" s="12" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="Y50" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z50" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E51" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>30</v>
@@ -5372,8 +5305,8 @@
       <c r="L51" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M51" s="11" t="s">
-        <v>36</v>
+      <c r="M51" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="N51" s="11" t="s">
         <v>48</v>
@@ -5385,7 +5318,7 @@
         <v>38</v>
       </c>
       <c r="Q51" s="12" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="R51" s="12" t="s">
         <v>40</v>
@@ -5394,7 +5327,7 @@
         <v>41</v>
       </c>
       <c r="T51" s="12" t="n">
-        <v>16384</v>
+        <v>24576</v>
       </c>
       <c r="U51" s="12" t="n">
         <v>8</v>
@@ -5406,33 +5339,33 @@
         <v>2</v>
       </c>
       <c r="X51" s="12" t="n">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="Y51" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z51" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="E52" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>30</v>
@@ -5452,8 +5385,8 @@
       <c r="L52" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M52" s="11" t="s">
-        <v>36</v>
+      <c r="M52" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="N52" s="11" t="s">
         <v>48</v>
@@ -5465,7 +5398,7 @@
         <v>38</v>
       </c>
       <c r="Q52" s="12" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="R52" s="12" t="s">
         <v>40</v>
@@ -5474,51 +5407,51 @@
         <v>41</v>
       </c>
       <c r="T52" s="12" t="n">
-        <v>8192</v>
+        <v>24576</v>
       </c>
       <c r="U52" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V52" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W52" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X52" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y52" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z52" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E53" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="10" t="s">
-        <v>31</v>
+      <c r="H53" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>32</v>
@@ -5532,8 +5465,8 @@
       <c r="L53" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M53" s="11" t="s">
-        <v>36</v>
+      <c r="M53" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="N53" s="11" t="s">
         <v>48</v>
@@ -5541,11 +5474,11 @@
       <c r="O53" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P53" s="9" t="s">
-        <v>38</v>
+      <c r="P53" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q53" s="12" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="R53" s="12" t="s">
         <v>40</v>
@@ -5554,51 +5487,51 @@
         <v>41</v>
       </c>
       <c r="T53" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U53" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V53" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W53" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X53" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y53" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z53" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E54" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>31</v>
+      <c r="H54" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I54" s="9" t="s">
         <v>32</v>
@@ -5613,19 +5546,19 @@
         <v>35</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N54" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P54" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q54" s="12" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="R54" s="12" t="s">
         <v>40</v>
@@ -5637,7 +5570,7 @@
         <v>8192</v>
       </c>
       <c r="U54" s="12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V54" s="12" t="n">
         <v>8</v>
@@ -5646,39 +5579,39 @@
         <v>2</v>
       </c>
       <c r="X54" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y54" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z54" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E55" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>31</v>
+      <c r="H55" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>32</v>
@@ -5693,19 +5626,19 @@
         <v>35</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N55" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P55" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q55" s="12" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="R55" s="12" t="s">
         <v>40</v>
@@ -5714,51 +5647,51 @@
         <v>41</v>
       </c>
       <c r="T55" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U55" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V55" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W55" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X55" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y55" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z55" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E56" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>31</v>
+      <c r="H56" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>32</v>
@@ -5773,19 +5706,19 @@
         <v>35</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N56" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P56" s="9" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q56" s="12" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="R56" s="12" t="s">
         <v>40</v>
@@ -5794,51 +5727,51 @@
         <v>41</v>
       </c>
       <c r="T56" s="12" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="U56" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V56" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W56" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X56" s="12" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="Y56" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z56" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E57" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H57" s="10" t="s">
-        <v>31</v>
+      <c r="H57" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I57" s="9" t="s">
         <v>32</v>
@@ -5852,20 +5785,20 @@
       <c r="L57" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M57" s="9" t="s">
-        <v>47</v>
+      <c r="M57" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="N57" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P57" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q57" s="12" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="R57" s="12" t="s">
         <v>40</v>
@@ -5874,13 +5807,13 @@
         <v>41</v>
       </c>
       <c r="T57" s="12" t="n">
-        <v>32768</v>
+        <v>7822</v>
       </c>
       <c r="U57" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V57" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W57" s="12" t="n">
         <v>2</v>
@@ -5897,28 +5830,28 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="E58" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>31</v>
+      <c r="H58" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I58" s="9" t="s">
         <v>32</v>
@@ -5932,20 +5865,20 @@
       <c r="L58" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M58" s="1" t="s">
-        <v>167</v>
+      <c r="M58" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N58" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P58" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="R58" s="12" t="s">
         <v>40</v>
@@ -5972,33 +5905,33 @@
         <v>42</v>
       </c>
       <c r="Z58" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="E59" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>31</v>
+      <c r="H59" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>32</v>
@@ -6012,20 +5945,20 @@
       <c r="L59" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M59" s="1" t="s">
-        <v>129</v>
+      <c r="M59" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N59" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P59" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q59" s="12" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="R59" s="12" t="s">
         <v>40</v>
@@ -6034,7 +5967,7 @@
         <v>41</v>
       </c>
       <c r="T59" s="12" t="n">
-        <v>24576</v>
+        <v>16384</v>
       </c>
       <c r="U59" s="12" t="n">
         <v>8</v>
@@ -6052,33 +5985,33 @@
         <v>42</v>
       </c>
       <c r="Z59" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>191</v>
+      <c r="D60" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E60" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>31</v>
+      <c r="H60" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>32</v>
@@ -6092,20 +6025,20 @@
       <c r="L60" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>214</v>
+      <c r="M60" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N60" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P60" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q60" s="12" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="R60" s="12" t="s">
         <v>40</v>
@@ -6114,7 +6047,7 @@
         <v>41</v>
       </c>
       <c r="T60" s="12" t="n">
-        <v>24576</v>
+        <v>16384</v>
       </c>
       <c r="U60" s="12" t="n">
         <v>8</v>
@@ -6126,33 +6059,33 @@
         <v>2</v>
       </c>
       <c r="X60" s="12" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="Y60" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z60" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D61" s="9" t="s">
-        <v>191</v>
+      <c r="D61" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E61" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>30</v>
@@ -6172,8 +6105,8 @@
       <c r="L61" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M61" s="1" t="s">
-        <v>167</v>
+      <c r="M61" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N61" s="11" t="s">
         <v>48</v>
@@ -6185,7 +6118,7 @@
         <v>38</v>
       </c>
       <c r="Q61" s="12" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R61" s="12" t="s">
         <v>40</v>
@@ -6194,7 +6127,7 @@
         <v>41</v>
       </c>
       <c r="T61" s="12" t="n">
-        <v>24576</v>
+        <v>16384</v>
       </c>
       <c r="U61" s="12" t="n">
         <v>8</v>
@@ -6212,33 +6145,33 @@
         <v>42</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="9" t="s">
-        <v>191</v>
+      <c r="D62" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E62" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>99</v>
+      <c r="H62" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>32</v>
@@ -6252,20 +6185,20 @@
       <c r="L62" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>129</v>
+      <c r="M62" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N62" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="P62" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q62" s="12" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="R62" s="12" t="s">
         <v>40</v>
@@ -6286,39 +6219,39 @@
         <v>2</v>
       </c>
       <c r="X62" s="12" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="Y62" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z62" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>191</v>
+      <c r="D63" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E63" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>99</v>
+      <c r="H63" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>32</v>
@@ -6333,7 +6266,7 @@
         <v>35</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="N63" s="11" t="s">
         <v>48</v>
@@ -6341,11 +6274,11 @@
       <c r="O63" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>100</v>
+      <c r="P63" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q63" s="12" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="R63" s="12" t="s">
         <v>40</v>
@@ -6354,51 +6287,51 @@
         <v>41</v>
       </c>
       <c r="T63" s="12" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="U63" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V63" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W63" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X63" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y63" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z63" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>191</v>
+      <c r="D64" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E64" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>99</v>
+      <c r="H64" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>32</v>
@@ -6413,7 +6346,7 @@
         <v>35</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="N64" s="11" t="s">
         <v>48</v>
@@ -6421,11 +6354,11 @@
       <c r="O64" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P64" s="1" t="s">
-        <v>100</v>
+      <c r="P64" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q64" s="12" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="R64" s="12" t="s">
         <v>40</v>
@@ -6434,51 +6367,51 @@
         <v>41</v>
       </c>
       <c r="T64" s="12" t="n">
-        <v>8192</v>
+        <v>24576</v>
       </c>
       <c r="U64" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V64" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W64" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X64" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y64" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z64" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="9" t="s">
-        <v>191</v>
+      <c r="D65" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E65" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>99</v>
+      <c r="H65" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>32</v>
@@ -6492,8 +6425,8 @@
       <c r="L65" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M65" s="9" t="s">
-        <v>84</v>
+      <c r="M65" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="N65" s="11" t="s">
         <v>48</v>
@@ -6501,11 +6434,11 @@
       <c r="O65" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P65" s="1" t="s">
-        <v>100</v>
+      <c r="P65" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q65" s="12" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="R65" s="12" t="s">
         <v>40</v>
@@ -6514,51 +6447,51 @@
         <v>41</v>
       </c>
       <c r="T65" s="12" t="n">
-        <v>8192</v>
+        <v>24576</v>
       </c>
       <c r="U65" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V65" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W65" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X65" s="12" t="n">
-        <v>800</v>
+        <v>230</v>
       </c>
       <c r="Y65" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z65" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>191</v>
+      <c r="D66" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E66" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>99</v>
+      <c r="H66" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>32</v>
@@ -6573,19 +6506,19 @@
         <v>35</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="N66" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="P66" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q66" s="12" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="R66" s="12" t="s">
         <v>40</v>
@@ -6594,7 +6527,7 @@
         <v>41</v>
       </c>
       <c r="T66" s="12" t="n">
-        <v>7822</v>
+        <v>8192</v>
       </c>
       <c r="U66" s="12" t="n">
         <v>4</v>
@@ -6605,40 +6538,40 @@
       <c r="W66" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="X66" s="0" t="n">
-        <v>0</v>
+      <c r="X66" s="12" t="n">
+        <v>230</v>
       </c>
       <c r="Y66" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z66" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>191</v>
+      <c r="D67" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E67" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>99</v>
+      <c r="H67" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>32</v>
@@ -6652,20 +6585,20 @@
       <c r="L67" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M67" s="11" t="s">
-        <v>36</v>
+      <c r="M67" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="N67" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>100</v>
+        <v>48</v>
+      </c>
+      <c r="P67" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q67" s="12" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="R67" s="12" t="s">
         <v>40</v>
@@ -6674,13 +6607,13 @@
         <v>41</v>
       </c>
       <c r="T67" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U67" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V67" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W67" s="12" t="n">
         <v>2</v>
@@ -6692,33 +6625,33 @@
         <v>42</v>
       </c>
       <c r="Z67" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>191</v>
+      <c r="D68" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="E68" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>99</v>
+      <c r="H68" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>32</v>
@@ -6732,8 +6665,8 @@
       <c r="L68" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M68" s="11" t="s">
-        <v>36</v>
+      <c r="M68" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="N68" s="11" t="s">
         <v>48</v>
@@ -6741,11 +6674,11 @@
       <c r="O68" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>100</v>
+      <c r="P68" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="R68" s="12" t="s">
         <v>40</v>
@@ -6754,13 +6687,13 @@
         <v>41</v>
       </c>
       <c r="T68" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U68" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V68" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W68" s="12" t="n">
         <v>2</v>
@@ -6772,33 +6705,33 @@
         <v>42</v>
       </c>
       <c r="Z68" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E69" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>99</v>
+      <c r="H69" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>32</v>
@@ -6812,8 +6745,8 @@
       <c r="L69" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M69" s="11" t="s">
-        <v>36</v>
+      <c r="M69" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="N69" s="11" t="s">
         <v>48</v>
@@ -6821,11 +6754,11 @@
       <c r="O69" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P69" s="1" t="s">
-        <v>100</v>
+      <c r="P69" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="Q69" s="12" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="R69" s="12" t="s">
         <v>40</v>
@@ -6834,45 +6767,45 @@
         <v>41</v>
       </c>
       <c r="T69" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U69" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V69" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W69" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X69" s="12" t="n">
-        <v>800</v>
+        <v>430</v>
       </c>
       <c r="Y69" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z69" s="12" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E70" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>30</v>
@@ -6892,20 +6825,20 @@
       <c r="L70" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M70" s="11" t="s">
-        <v>36</v>
+      <c r="M70" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="N70" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="P70" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Q70" s="12" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="R70" s="12" t="s">
         <v>40</v>
@@ -6914,13 +6847,13 @@
         <v>41</v>
       </c>
       <c r="T70" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U70" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V70" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W70" s="12" t="n">
         <v>2</v>
@@ -6937,28 +6870,28 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E71" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H71" s="10" t="s">
-        <v>31</v>
+      <c r="H71" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I71" s="9" t="s">
         <v>32</v>
@@ -6973,19 +6906,19 @@
         <v>35</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N71" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P71" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q71" s="12" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="R71" s="12" t="s">
         <v>40</v>
@@ -6994,19 +6927,19 @@
         <v>41</v>
       </c>
       <c r="T71" s="12" t="n">
-        <v>16384</v>
+        <v>8192</v>
       </c>
       <c r="U71" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" s="12" t="n">
         <v>8</v>
-      </c>
-      <c r="V71" s="12" t="n">
-        <v>16</v>
       </c>
       <c r="W71" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X71" s="12" t="n">
-        <v>430</v>
+        <v>800</v>
       </c>
       <c r="Y71" s="12" t="s">
         <v>42</v>
@@ -7017,28 +6950,28 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E72" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H72" s="10" t="s">
-        <v>31</v>
+      <c r="H72" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I72" s="9" t="s">
         <v>32</v>
@@ -7053,19 +6986,19 @@
         <v>35</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N72" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P72" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q72" s="12" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="R72" s="12" t="s">
         <v>40</v>
@@ -7086,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="X72" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y72" s="12" t="s">
         <v>42</v>
@@ -7097,28 +7030,28 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E73" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>31</v>
+      <c r="H73" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I73" s="9" t="s">
         <v>32</v>
@@ -7133,19 +7066,19 @@
         <v>35</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="N73" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P73" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q73" s="12" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="R73" s="12" t="s">
         <v>40</v>
@@ -7154,7 +7087,7 @@
         <v>41</v>
       </c>
       <c r="T73" s="12" t="n">
-        <v>24576</v>
+        <v>16384</v>
       </c>
       <c r="U73" s="12" t="n">
         <v>8</v>
@@ -7166,39 +7099,39 @@
         <v>2</v>
       </c>
       <c r="X73" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y73" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z73" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E74" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G74" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H74" s="10" t="s">
-        <v>31</v>
+      <c r="H74" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I74" s="9" t="s">
         <v>32</v>
@@ -7212,20 +7145,20 @@
       <c r="L74" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>233</v>
+      <c r="M74" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N74" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P74" s="9" t="s">
-        <v>38</v>
+        <v>58</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q74" s="12" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="R74" s="12" t="s">
         <v>40</v>
@@ -7234,7 +7167,7 @@
         <v>41</v>
       </c>
       <c r="T74" s="12" t="n">
-        <v>24576</v>
+        <v>32768</v>
       </c>
       <c r="U74" s="12" t="n">
         <v>8</v>
@@ -7246,39 +7179,39 @@
         <v>2</v>
       </c>
       <c r="X74" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y74" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z74" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E75" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H75" s="10" t="s">
-        <v>31</v>
+      <c r="H75" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I75" s="9" t="s">
         <v>32</v>
@@ -7292,8 +7225,8 @@
       <c r="L75" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>233</v>
+      <c r="M75" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N75" s="11" t="s">
         <v>48</v>
@@ -7301,11 +7234,11 @@
       <c r="O75" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P75" s="9" t="s">
-        <v>38</v>
+      <c r="P75" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q75" s="12" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="R75" s="12" t="s">
         <v>40</v>
@@ -7314,51 +7247,51 @@
         <v>41</v>
       </c>
       <c r="T75" s="12" t="n">
-        <v>8192</v>
+        <v>32768</v>
       </c>
       <c r="U75" s="12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V75" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W75" s="12" t="n">
         <v>2</v>
       </c>
       <c r="X75" s="12" t="n">
-        <v>230</v>
+        <v>800</v>
       </c>
       <c r="Y75" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Z75" s="12" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="E76" s="9" t="n">
         <v>1</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H76" s="10" t="s">
-        <v>31</v>
+      <c r="H76" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I76" s="9" t="s">
         <v>32</v>
@@ -7372,8 +7305,8 @@
       <c r="L76" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M76" s="1" t="s">
-        <v>129</v>
+      <c r="M76" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="N76" s="11" t="s">
         <v>48</v>
@@ -7381,11 +7314,11 @@
       <c r="O76" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P76" s="9" t="s">
-        <v>38</v>
+      <c r="P76" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="Q76" s="12" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="R76" s="12" t="s">
         <v>40</v>
@@ -7394,13 +7327,13 @@
         <v>41</v>
       </c>
       <c r="T76" s="12" t="n">
-        <v>8192</v>
+        <v>32768</v>
       </c>
       <c r="U76" s="12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V76" s="12" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W76" s="12" t="n">
         <v>2</v>
@@ -7412,735 +7345,24 @@
         <v>42</v>
       </c>
       <c r="Z76" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E77" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L77" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P77" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q77" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="R77" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S77" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T77" s="12" t="n">
-        <v>8192</v>
-      </c>
-      <c r="U77" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V77" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="W77" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X77" s="12" t="n">
-        <v>430</v>
-      </c>
-      <c r="Y77" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z77" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E78" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K78" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L78" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N78" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O78" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P78" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q78" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="R78" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S78" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T78" s="12" t="n">
-        <v>8192</v>
-      </c>
-      <c r="U78" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V78" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="W78" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X78" s="12" t="n">
-        <v>430</v>
-      </c>
-      <c r="Y78" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z78" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E79" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L79" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="N79" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P79" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q79" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="R79" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S79" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T79" s="12" t="n">
-        <v>8192</v>
-      </c>
-      <c r="U79" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="V79" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="W79" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X79" s="12" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y79" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z79" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E80" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K80" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L80" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M80" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O80" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q80" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="R80" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S80" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T80" s="12" t="n">
-        <v>8192</v>
-      </c>
-      <c r="U80" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="V80" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="W80" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X80" s="12" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y80" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z80" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E81" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L81" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="N81" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="R81" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S81" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T81" s="12" t="n">
-        <v>16384</v>
-      </c>
-      <c r="U81" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="V81" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="W81" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X81" s="12" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y81" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z81" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E82" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K82" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L82" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M82" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O82" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q82" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="R82" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S82" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T82" s="12" t="n">
-        <v>16384</v>
-      </c>
-      <c r="U82" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="V82" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="W82" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X82" s="12" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y82" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z82" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E83" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K83" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L83" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M83" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N83" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O83" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q83" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="R83" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S83" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T83" s="12" t="n">
-        <v>32768</v>
-      </c>
-      <c r="U83" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="V83" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="W83" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X83" s="12" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y83" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z83" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E84" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K84" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L84" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M84" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N84" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O84" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q84" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="R84" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S84" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T84" s="12" t="n">
-        <v>32768</v>
-      </c>
-      <c r="U84" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="V84" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="W84" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X84" s="12" t="n">
-        <v>800</v>
-      </c>
-      <c r="Y84" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z84" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E85" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L85" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M85" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="N85" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="O85" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q85" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="R85" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="S85" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="T85" s="12" t="n">
-        <v>32768</v>
-      </c>
-      <c r="U85" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="V85" s="12" t="n">
-        <v>16</v>
-      </c>
-      <c r="W85" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="X85" s="12" t="n">
-        <v>430</v>
-      </c>
-      <c r="Y85" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z85" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:Z85"/>
+  <autoFilter ref="A1:Z76"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555556" right="0.511805555555556" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
